--- a/excel_with_subclasses/without_zeros/upland_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/upland_with_count_without_zeros.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,7 +410,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -430,9 +430,6 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>37366</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -450,9 +447,6 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>4941</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -470,9 +464,6 @@
           <t>Q2046325_Круглый курган</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>3158</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,9 +481,6 @@
           <t>Q34023_тумулус</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1424</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -510,9 +498,6 @@
           <t>Q34023_тумулус</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>922</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -530,9 +515,6 @@
           <t>Q2046310_Чашевидный курган</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>381</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -550,9 +532,6 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>337</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,48 +549,39 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>313</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q11411019</t>
+          <t>Q1652352</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>кофунгун</t>
+          <t>Длинный курган</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Q34023_тумулус</t>
         </is>
-      </c>
-      <c r="D10" t="n">
-        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q1652352</t>
+          <t>Q11411019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Длинный курган</t>
+          <t>кофунгун</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Q34023_тумулус</t>
         </is>
-      </c>
-      <c r="D11" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="12">
@@ -630,9 +600,6 @@
           <t>Q20572322_HuMP</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>247</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -650,9 +617,6 @@
           <t>Q34023_тумулус</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>161</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,9 +634,6 @@
           <t>Q34023_тумулус,Q2046325_Круглый курган</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>116</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -690,9 +651,6 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>101</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -710,9 +668,6 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -730,9 +685,6 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -750,9 +702,6 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -770,428 +719,362 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q5737</t>
+          <t>Q1492017</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>курган</t>
+          <t>Галгенберг</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>29</v>
+          <t>Q54050_холм</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q1492017</t>
+          <t>Q3294251</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Галгенберг</t>
+          <t>hillock</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D21" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q3294251</t>
+          <t>Q5069563</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hillock</t>
+          <t>chambered long barrow</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>22</v>
+          <t>Q34023_тумулус,Q1652352_Длинный курган</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q5069563</t>
+          <t>Q502899</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>chambered long barrow</t>
+          <t>inliers and outliers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q34023_тумулус,Q1652352_Длинный курган</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>21</v>
+          <t>Q54050_холм</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q502899</t>
+          <t>Q22569524</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>inliers and outliers</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D24" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q22569524</t>
+          <t>Q26221546</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>Runddysse</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>15</v>
+          <t>Q34023_тумулус</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q26221546</t>
+          <t>Q10460934</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Runddysse</t>
+          <t>artificial hill</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>14</v>
+          <t>Q54050_холм</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q10460934</t>
+          <t>Q11268718</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>artificial hill</t>
+          <t>Keyhole-shaped kofun</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>12</v>
+          <t>Q1141225_Кофун</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q11268718</t>
+          <t>Q863906</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Keyhole-shaped kofun</t>
+          <t>inland dune</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q1141225_Кофун</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>11</v>
+          <t>Q25391_дюна</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q863906</t>
+          <t>Q55182635</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>inland dune</t>
+          <t>undersea knoll</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>11</v>
+          <t>Q54050_холм</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q55182635</t>
+          <t>Q192701</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>undersea knoll</t>
+          <t>Друмлин</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D30" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q192701</t>
+          <t>Q843181</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Друмлин</t>
+          <t>Schuttberg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D31" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q843181</t>
+          <t>Q47781632</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Schuttberg</t>
+          <t>undersea hill</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D32" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q2459045</t>
+          <t>Q17189807</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>granite dome</t>
+          <t>baou</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D33" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q17189807</t>
+          <t>Q2141230</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>baou</t>
+          <t>tumulus above cremated remains</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
+          <t>Q34023_тумулус</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q47781632</t>
+          <t>Q2459045</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>undersea hill</t>
+          <t>granite dome</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D35" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q2141230</t>
+          <t>Q1253315</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tumulus above cremated remains</t>
+          <t>downland</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
+          <t>Q54050_холм</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q1253315</t>
+          <t>Q1142381</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>downland</t>
+          <t>Побочный конус</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>4</v>
+          <t>Q1368970_volcanic cone</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q1142381</t>
+          <t>Q28026737</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Побочный конус</t>
+          <t>Фьельды</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q1368970_volcanic cone</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>3</v>
+          <t>Q54050_холм,Q5421955_Фьельды</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q28026737</t>
+          <t>Q1260913</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Фьельды</t>
+          <t>moot hill</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Q54050_холм,Q5421955_Фьельды</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
+          <t>Q54050_холм</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q1260913</t>
+          <t>Q26710654</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>moot hill</t>
+          <t>Highland Five</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D40" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1210,9 +1093,6 @@
           <t>Q34023_тумулус</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1230,88 +1110,73 @@
           <t>Q54050_холм</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q26710654</t>
+          <t>Q11964099</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Highland Five</t>
+          <t>Corbett</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>Q54050_холм</t>
         </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q11964099</t>
+          <t>Q1351659</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Corbett</t>
+          <t>oval barrow</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
+          <t>Q34023_тумулус</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q1351659</t>
+          <t>Q2618174</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>oval barrow</t>
+          <t>поющий бархан</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
+          <t>Q25391_дюна</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q2618174</t>
+          <t>Q1606926</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>поющий бархан</t>
+          <t>coastal dune</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>Q25391_дюна</t>
         </is>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1330,9 +1195,6 @@
           <t>Q34023_тумулус</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1350,9 +1212,6 @@
           <t>Q34023_тумулус</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1369,29 +1228,6 @@
         <is>
           <t>Q25391_дюна</t>
         </is>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Q1606926</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>coastal dune</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Q25391_дюна</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1267,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1451,9 +1287,7 @@
           <t>Q11702690_undersea ridge</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>35</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1471,9 +1305,7 @@
           <t>Q740445_кряж</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1491,9 +1323,7 @@
           <t>Q740445_кряж</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1511,9 +1341,7 @@
           <t>Q740445_кряж</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
